--- a/quiz/Quiz_Network_03_B.xlsx
+++ b/quiz/Quiz_Network_03_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805D6BCE-6366-5947-A189-67171E79DF1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B159F-B921-E348-9FF7-69F52405B919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="31560" windowHeight="19500" activeTab="2" xr2:uid="{68FE8602-DD5A-D848-9B19-1A11977F4B0B}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="31440" windowHeight="19500" activeTab="1" xr2:uid="{68FE8602-DD5A-D848-9B19-1A11977F4B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="3" r:id="rId1"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9F9851-E5E1-5749-AF8C-8945E626ED77}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D482C2B2-EC08-7747-928D-A9A36D7A0AB7}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
